--- a/data/trans_camb/P20B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20B-Edad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>4.200451420907593</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>10.64037503668727</v>
+        <v>10.64037503668728</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>7.067998951127005</v>
@@ -675,29 +675,29 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-40.75160130144149</v>
+        <v>-41.20907214443722</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-47.16823289099632</v>
+        <v>-41.50288256980545</v>
       </c>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
-        <v>-3.285367462932472</v>
+        <v>-3.533276008237969</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.255645705720108</v>
+        <v>-5.396617449355029</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-6.012424495955178</v>
+        <v>-6.139635482939325</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-8.258655832036538</v>
+        <v>-7.287583193286758</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-10.76186379590907</v>
+        <v>-10.76176199594891</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-14.75473994881039</v>
+        <v>-14.52417709231055</v>
       </c>
     </row>
     <row r="6">
@@ -708,29 +708,29 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>36.01613356719828</v>
+        <v>35.30071318110061</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>32.56153147109436</v>
+        <v>32.80733829268978</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>19.91695256191126</v>
+        <v>20.1188622895971</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>18.75191246966604</v>
+        <v>17.75662156874658</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>56.42529721897733</v>
+        <v>49.03494544676267</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>21.76378970250748</v>
+        <v>21.26232583381568</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>18.16800441486902</v>
+        <v>17.01357949404587</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>45.49708010104141</v>
+        <v>34.49316579662558</v>
       </c>
     </row>
     <row r="7">
@@ -756,7 +756,7 @@
         <v>1.319320758076041</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>3.342037855679433</v>
+        <v>3.342037855679434</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.7081725972740499</v>
@@ -775,19 +775,19 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="6" t="n">
-        <v>-0.7968817623406249</v>
-      </c>
-      <c r="D8" s="6" t="inlineStr"/>
+      <c r="C8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.6002050344566618</v>
+        <v>-0.562010300217447</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7289827850313215</v>
+        <v>-0.7768042301386164</v>
       </c>
       <c r="K8" s="6" t="inlineStr"/>
     </row>
@@ -805,10 +805,10 @@
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>7.312248928522144</v>
+        <v>6.601541261256567</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>5.417029411500777</v>
+        <v>5.420135738160057</v>
       </c>
       <c r="K9" s="6" t="inlineStr"/>
     </row>
@@ -830,7 +830,7 @@
         <v>-11.43171360572655</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.945510653541157</v>
+        <v>3.945510653541162</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-2.192695795972176</v>
@@ -839,7 +839,7 @@
         <v>-0.2640248356834893</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-1.401891586661173</v>
+        <v>-1.401891586661172</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-2.997834964283694</v>
@@ -848,7 +848,7 @@
         <v>-3.326852121224863</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.8186718992467215</v>
+        <v>0.8186718992467188</v>
       </c>
     </row>
     <row r="11">
@@ -859,31 +859,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-29.00560644233288</v>
+        <v>-29.15213748894773</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-33.13734615580488</v>
+        <v>-34.49706027926547</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-26.17173522574874</v>
+        <v>-26.93956735250019</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-10.77202913095318</v>
+        <v>-10.57808799575814</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-9.614685046578044</v>
+        <v>-9.092039830214228</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-10.23273103990309</v>
+        <v>-10.47466552541916</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-11.55538764272527</v>
+        <v>-11.91575231122049</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-12.19969479039428</v>
+        <v>-12.28721582349213</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-9.905178080006259</v>
+        <v>-9.60774481591247</v>
       </c>
     </row>
     <row r="12">
@@ -894,31 +894,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.67311618175035</v>
+        <v>14.99989482527725</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.11319950166818</v>
+        <v>15.40149706076602</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>43.9344572865856</v>
+        <v>44.36135120721922</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.236241562266475</v>
+        <v>5.29429576269401</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.839252283302738</v>
+        <v>8.843726456977146</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>12.04191445097102</v>
+        <v>10.95779363589982</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.131255095027387</v>
+        <v>4.936266852107861</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.877669064224759</v>
+        <v>6.060062506336142</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>16.56686976844686</v>
+        <v>15.72165242126631</v>
       </c>
     </row>
     <row r="13">
@@ -935,7 +935,7 @@
         <v>-0.456573342204774</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.157580485999005</v>
+        <v>0.1575804859990052</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.273841005275175</v>
@@ -944,7 +944,7 @@
         <v>-0.03297348704457363</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.1750791888611699</v>
+        <v>-0.1750791888611697</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.247266398879642</v>
@@ -953,7 +953,7 @@
         <v>-0.2744042795621098</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.06752541577586904</v>
+        <v>0.06752541577586882</v>
       </c>
     </row>
     <row r="14">
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7676447785262737</v>
+        <v>-0.7842846436852683</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>-1</v>
@@ -973,22 +973,22 @@
         <v>-1</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8204431750784206</v>
+        <v>-0.8189544798529462</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8022753626422194</v>
+        <v>-0.7719934561218552</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6885680375510219</v>
+        <v>-0.6753361990710535</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7819470575203105</v>
+        <v>-0.741830966136063</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.6871981215211136</v>
+        <v>-0.6774290138991053</v>
       </c>
     </row>
     <row r="15">
@@ -999,31 +999,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.54705831250753</v>
+        <v>1.512223151958745</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.319833902504273</v>
+        <v>1.725681520428625</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.230141803470802</v>
+        <v>3.613332954555523</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.793244186679399</v>
+        <v>1.480601346289451</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.544598455383878</v>
+        <v>2.723217925388502</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5.204892585505842</v>
+        <v>4.221018431348361</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.579047054708418</v>
+        <v>0.7187414827999051</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7826115990053578</v>
+        <v>0.9078955432665928</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.913980620738254</v>
+        <v>2.08930885038528</v>
       </c>
     </row>
     <row r="16">
@@ -1044,7 +1044,7 @@
         <v>5.39262171673634</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-13.17933773505815</v>
+        <v>-13.17933773505814</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>13.57586305355487</v>
@@ -1062,7 +1062,7 @@
         <v>-0.785400105099579</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-2.469551520355662</v>
+        <v>-2.469551520355659</v>
       </c>
     </row>
     <row r="17">
@@ -1073,31 +1073,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-32.92045173515293</v>
+        <v>-30.48858304118404</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-26.24602333257749</v>
+        <v>-29.89049609144823</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-39.94372264807865</v>
+        <v>-42.80461984950373</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.543887904837744</v>
+        <v>-4.989285686361693</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-18.91555306388929</v>
+        <v>-18.54158644108293</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-15.76638284503944</v>
+        <v>-12.73878379934636</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-8.105671373220343</v>
+        <v>-7.963574316942893</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-16.21134130984061</v>
+        <v>-17.20761687870413</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-18.91446798611535</v>
+        <v>-17.23203272370754</v>
       </c>
     </row>
     <row r="18">
@@ -1108,31 +1108,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>22.71157229253671</v>
+        <v>22.98564504055711</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>36.52140933535921</v>
+        <v>33.71229369076587</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22.24103576445863</v>
+        <v>14.80044706950002</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>30.15485011000345</v>
+        <v>32.82075168275761</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>13.45037305071984</v>
+        <v>13.23143086267149</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>19.27003261179672</v>
+        <v>19.14323754056408</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>22.04268443060932</v>
+        <v>21.45674326036585</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>14.18994553359934</v>
+        <v>13.18637538733338</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>11.81034352753899</v>
+        <v>12.23704437418978</v>
       </c>
     </row>
     <row r="19">
@@ -1167,7 +1167,7 @@
         <v>-0.03115358123849195</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.09795691827961617</v>
+        <v>-0.09795691827961606</v>
       </c>
     </row>
     <row r="20">
@@ -1178,31 +1178,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.591528039132117</v>
+        <v>-0.5666651989238237</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5150604347102776</v>
+        <v>-0.545689088405518</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7947656997106917</v>
+        <v>-0.8439849348798515</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1813024989253126</v>
+        <v>-0.1990794152832257</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7160626039448929</v>
+        <v>-0.7024689877770728</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5655494043516961</v>
+        <v>-0.5060455698311548</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2712786172635006</v>
+        <v>-0.2630725640050667</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4824993922822952</v>
+        <v>-0.5041959712429709</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5442816162070504</v>
+        <v>-0.5055557359895848</v>
       </c>
     </row>
     <row r="21">
@@ -1213,31 +1213,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.192587058124306</v>
+        <v>1.220396630509156</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.933148428171525</v>
+        <v>1.629332277092161</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.144949110061915</v>
+        <v>0.7970630122800673</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>3.576683681227638</v>
+        <v>3.627759083499329</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.724783488900699</v>
+        <v>1.458618494005975</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.073557398496177</v>
+        <v>2.099443822137887</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.330913815561507</v>
+        <v>1.281852099427396</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.9001147702642369</v>
+        <v>0.7390846388847868</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7407340762260813</v>
+        <v>0.7923379003259189</v>
       </c>
     </row>
     <row r="22">
@@ -1258,7 +1258,7 @@
         <v>26.49447979101819</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24.56271294015136</v>
+        <v>24.56271294015135</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>12.43185705708799</v>
@@ -1267,7 +1267,7 @@
         <v>7.988284367302051</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.324085142846442</v>
+        <v>6.324085142846425</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>18.66140571614367</v>
@@ -1287,31 +1287,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.9235270791923309</v>
+        <v>2.430548342058756</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.359587382891071</v>
+        <v>0.6157948133314755</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.674650127552451</v>
+        <v>1.208309477539217</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-14.18042362213292</v>
+        <v>-13.06945159276579</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-19.40865573936245</v>
+        <v>-18.76192060364345</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-18.93716039210101</v>
+        <v>-17.80221987311014</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9225542466879701</v>
+        <v>-0.3069760168616179</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.446389851521534</v>
+        <v>-1.786672590710704</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.300977033026263</v>
+        <v>-3.106018042652683</v>
       </c>
     </row>
     <row r="24">
@@ -1322,31 +1322,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>45.66724504416867</v>
+        <v>49.22152658393237</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>50.81403264448721</v>
+        <v>50.63688625902384</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>45.11387645761196</v>
+        <v>47.7660647423577</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>34.60759442015386</v>
+        <v>34.73101897064172</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>34.47362215294914</v>
+        <v>36.10639119169876</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>28.90675714525308</v>
+        <v>28.80337245794444</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>34.87288270084281</v>
+        <v>35.14643079477501</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>35.52266538357113</v>
+        <v>35.12903291230815</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>30.50671940710043</v>
+        <v>30.05500355992296</v>
       </c>
     </row>
     <row r="25">
@@ -1372,7 +1372,7 @@
         <v>0.2096160178561535</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1659467143724693</v>
+        <v>0.1659467143724688</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.65853683216852</v>
@@ -1392,31 +1392,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.08628620534811866</v>
+        <v>0.02408629070208436</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1972931122720144</v>
+        <v>-0.202357316031875</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.078795017716041</v>
+        <v>-0.0427546355212336</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2588062911609436</v>
+        <v>-0.2515369000744298</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3915549692590654</v>
+        <v>-0.3763989589971969</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3643790482623507</v>
+        <v>-0.3306203823878546</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01391467326736289</v>
+        <v>-0.01210301331185402</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.05089142341413044</v>
+        <v>-0.0739712090495469</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1037224043701733</v>
+        <v>-0.1091025749934472</v>
       </c>
     </row>
     <row r="27">
@@ -1427,31 +1427,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9.243158056772501</v>
+        <v>9.761383706194318</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>9.859441059505027</v>
+        <v>8.225491796335557</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9.577152683767599</v>
+        <v>9.99464499549522</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.516036768138044</v>
+        <v>1.448741218960578</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.54295144277608</v>
+        <v>1.545214786733099</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.2455012544388</v>
+        <v>1.275166222793453</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.924160921521426</v>
+        <v>1.858673595523634</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.834889277282828</v>
+        <v>1.891271867323704</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.765367061243198</v>
+        <v>1.52784998358879</v>
       </c>
     </row>
     <row r="28">
@@ -1472,7 +1472,7 @@
         <v>2.939535831158513</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-9.557686869200859</v>
+        <v>-9.557686869200872</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-7.435448981667914</v>
@@ -1481,7 +1481,7 @@
         <v>0.7300638489466105</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-15.28846570173092</v>
+        <v>-15.28846570173091</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-9.667179110515889</v>
@@ -1490,7 +1490,7 @@
         <v>1.611974994825832</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-12.30299437225026</v>
+        <v>-12.30299437225027</v>
       </c>
     </row>
     <row r="29">
@@ -1501,31 +1501,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-40.55927085438679</v>
+        <v>-39.30204772020292</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-25.67949521724622</v>
+        <v>-25.29499647539223</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-37.13481403587775</v>
+        <v>-36.68092949635528</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-34.54683354924494</v>
+        <v>-32.48006954897335</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-26.08423537389997</v>
+        <v>-29.51618913163626</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-38.30905729217234</v>
+        <v>-39.69915515695325</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-28.91311405800103</v>
+        <v>-29.51568217139356</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-17.56414993258009</v>
+        <v>-17.05802381678868</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-29.10701503285654</v>
+        <v>-29.83223991882709</v>
       </c>
     </row>
     <row r="30">
@@ -1536,31 +1536,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>14.195435137846</v>
+        <v>16.87101967149381</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>29.90574480816163</v>
+        <v>29.06558764858584</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>15.03676320933721</v>
+        <v>13.95520690653762</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19.52618621948847</v>
+        <v>21.73301850318539</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>28.06387090361642</v>
+        <v>28.67103547184684</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>8.309680958680207</v>
+        <v>6.976723220776175</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>11.91650408122019</v>
+        <v>10.7344546468797</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>20.87020127764818</v>
+        <v>19.16068713399672</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.048105681390451</v>
+        <v>3.926565232727798</v>
       </c>
     </row>
     <row r="31">
@@ -1577,7 +1577,7 @@
         <v>0.06494676277581107</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.2111696735245543</v>
+        <v>-0.2111696735245546</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.1555686552129817</v>
@@ -1586,7 +1586,7 @@
         <v>0.01527480740978207</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.3198738980459727</v>
+        <v>-0.3198738980459725</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.2068744706483323</v>
@@ -1595,7 +1595,7 @@
         <v>0.03449573758183387</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.2632800550245378</v>
+        <v>-0.2632800550245379</v>
       </c>
     </row>
     <row r="32">
@@ -1606,31 +1606,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.693422820083096</v>
+        <v>-0.6667357880345037</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4422832036630505</v>
+        <v>-0.4207113195787608</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5806288427461139</v>
+        <v>-0.5822538888416133</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.5821858691097916</v>
+        <v>-0.5538706632726068</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.450876805058876</v>
+        <v>-0.4825967246443514</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6077173150021288</v>
+        <v>-0.6257724936485545</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.5095214089050795</v>
+        <v>-0.5266691762037153</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3095898286784514</v>
+        <v>-0.3150499537100389</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5091813855050309</v>
+        <v>-0.5151913455721068</v>
       </c>
     </row>
     <row r="33">
@@ -1641,31 +1641,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6394489442816329</v>
+        <v>0.6364564012609061</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.144029252239083</v>
+        <v>1.143431569352823</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.5728889750346391</v>
+        <v>0.4875888633244232</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.6311865013139956</v>
+        <v>0.7474157471701294</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.900216358198958</v>
+        <v>0.9136028705400194</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2719500345845383</v>
+        <v>0.216823708235918</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3400171919470639</v>
+        <v>0.2694851638451188</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6222854910451308</v>
+        <v>0.5325914758716186</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1750002955532559</v>
+        <v>0.124812105985787</v>
       </c>
     </row>
     <row r="34">
@@ -1686,7 +1686,7 @@
         <v>1.96859028676874</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>18.30933145917179</v>
+        <v>18.3093314591718</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-0.840609609227666</v>
@@ -1704,7 +1704,7 @@
         <v>4.657357223968067</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>3.985756815167924</v>
+        <v>3.985756815167929</v>
       </c>
     </row>
     <row r="35">
@@ -1715,31 +1715,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-12.81331187995739</v>
+        <v>-14.15266473203246</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-23.2245095508184</v>
+        <v>-22.35855973114495</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-5.218212689496641</v>
+        <v>-3.279778899523918</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-24.52386340223629</v>
+        <v>-25.53184645465054</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-13.44374981466409</v>
+        <v>-13.35026283207372</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-35.1652179520838</v>
+        <v>-30.37015903548147</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-12.81160337478538</v>
+        <v>-13.12368008280628</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-12.82865194706641</v>
+        <v>-11.48792161150919</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-11.27423086450724</v>
+        <v>-11.80674073248287</v>
       </c>
     </row>
     <row r="36">
@@ -1750,31 +1750,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>37.74488149620143</v>
+        <v>36.0388056057342</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>22.88294763019216</v>
+        <v>23.07941450922212</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>37.82902914457456</v>
+        <v>39.29100667096216</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>20.78822889804015</v>
+        <v>21.94997696093117</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>36.86789298302048</v>
+        <v>36.78148669667819</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>5.763185054045197</v>
+        <v>7.985563910302888</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>23.03304670024297</v>
+        <v>21.37180106706083</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>20.01606525342817</v>
+        <v>21.18024824871351</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>19.40995701429097</v>
+        <v>19.00421405244877</v>
       </c>
     </row>
     <row r="37">
@@ -1791,7 +1791,7 @@
         <v>0.08993460326068148</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.8364576782768451</v>
+        <v>0.8364576782768457</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.02480656465197724</v>
@@ -1809,7 +1809,7 @@
         <v>0.1626335502362296</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.1391814606560769</v>
+        <v>0.1391814606560771</v>
       </c>
     </row>
     <row r="38">
@@ -1820,31 +1820,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4448206477862335</v>
+        <v>-0.4438585631738342</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.6717000436036535</v>
+        <v>-0.6288412739933497</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1917928708533646</v>
+        <v>-0.1482294602102344</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.5216941897231471</v>
+        <v>-0.542947457328204</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3316118526072007</v>
+        <v>-0.3339214148605598</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.7665575113778518</v>
+        <v>-0.717122570471953</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3314153841776519</v>
+        <v>-0.3566099501955854</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.323651205028965</v>
+        <v>-0.3315827825231368</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3009001174724309</v>
+        <v>-0.3266508792456415</v>
       </c>
     </row>
     <row r="39">
@@ -1855,31 +1855,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>4.330393907543034</v>
+        <v>4.195542018541488</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2.603913060362674</v>
+        <v>2.596913027403408</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>4.078651391806414</v>
+        <v>4.298428376192019</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.013622293669542</v>
+        <v>1.033622625417298</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.655305776318737</v>
+        <v>1.809112403131786</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2663521765262914</v>
+        <v>0.353007387997978</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.161802343249273</v>
+        <v>1.059455404655207</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.9903768695480578</v>
+        <v>1.089195868684931</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.017497227737538</v>
+        <v>1.016332949209186</v>
       </c>
     </row>
     <row r="40">
@@ -1900,7 +1900,7 @@
         <v>11.19923772547977</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>6.547106525341023</v>
+        <v>6.547106525341018</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-1.696350999861682</v>
@@ -1909,7 +1909,7 @@
         <v>10.06107986549847</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>8.815527405747517</v>
+        <v>8.815527405747522</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>0.5998808439618808</v>
@@ -1918,7 +1918,7 @@
         <v>10.53056299403234</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>7.681728741235452</v>
+        <v>7.681728741235458</v>
       </c>
     </row>
     <row r="41">
@@ -1929,31 +1929,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-18.29489092314711</v>
+        <v>-18.12000084504704</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-11.10174806548636</v>
+        <v>-10.23922544594001</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-12.98984774529812</v>
+        <v>-14.93936841579876</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-20.29699860924399</v>
+        <v>-19.73900910601462</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-11.75331604515078</v>
+        <v>-7.894897576378147</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-10.25711937836114</v>
+        <v>-11.37138973049835</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-13.17308986259398</v>
+        <v>-13.67882931707448</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.751123993709055</v>
+        <v>-5.124600066508083</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-4.047957278815647</v>
+        <v>-5.3430749465554</v>
       </c>
     </row>
     <row r="42">
@@ -1964,31 +1964,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>24.03457001573049</v>
+        <v>24.02822159959874</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>35.12119971535117</v>
+        <v>34.8441586466293</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>24.15757626992866</v>
+        <v>22.9059166647967</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>13.22287301073886</v>
+        <v>14.3319033202165</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>32.1329691535513</v>
+        <v>34.45540945919829</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>23.80149292264714</v>
+        <v>23.77192497662407</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>13.61396278499709</v>
+        <v>13.56062420093268</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>27.56375750522998</v>
+        <v>27.097145419267</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>18.74767863478001</v>
+        <v>19.29798555207913</v>
       </c>
     </row>
     <row r="43">
@@ -2005,7 +2005,7 @@
         <v>0.8195090387578041</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.479087336722939</v>
+        <v>0.4790873367229386</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.1009382443473514</v>
@@ -2014,7 +2014,7 @@
         <v>0.5986660413703933</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.5245517345199613</v>
+        <v>0.5245517345199616</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.038363316964867</v>
@@ -2023,7 +2023,7 @@
         <v>0.6734459518501187</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.4912585516014091</v>
+        <v>0.4912585516014095</v>
       </c>
     </row>
     <row r="44">
@@ -2034,31 +2034,29 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.7522280852629835</v>
-      </c>
-      <c r="D44" s="6" t="n">
-        <v>-0.6200584155574382</v>
-      </c>
+        <v>-0.8267213405187006</v>
+      </c>
+      <c r="D44" s="6" t="inlineStr"/>
       <c r="E44" s="6" t="n">
-        <v>-0.5305430167796401</v>
+        <v>-0.6106714917467737</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.7654409165494881</v>
+        <v>-0.7508157814830714</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.4788958993927734</v>
+        <v>-0.3708039186736479</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.3905619205431499</v>
+        <v>-0.3818951829620366</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.5803940037379193</v>
+        <v>-0.6163035644191051</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2011002735831828</v>
+        <v>-0.2915427259908681</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1951628151999428</v>
+        <v>-0.2385801324435678</v>
       </c>
     </row>
     <row r="45">
@@ -2069,27 +2067,27 @@
         </is>
       </c>
       <c r="C45" s="6" t="inlineStr"/>
-      <c r="D45" s="6" t="n">
-        <v>11.02425142851524</v>
-      </c>
-      <c r="E45" s="6" t="inlineStr"/>
+      <c r="D45" s="6" t="inlineStr"/>
+      <c r="E45" s="6" t="n">
+        <v>5.132969862105356</v>
+      </c>
       <c r="F45" s="6" t="n">
-        <v>2.2690678879817</v>
+        <v>2.445515314494207</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>5.182645928337978</v>
+        <v>5.063066479101297</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>4.102116813392863</v>
+        <v>3.628365615971525</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.496074279053577</v>
+        <v>1.705367664067531</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>3.346329611677659</v>
+        <v>3.262003394626503</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>2.38167410080673</v>
+        <v>2.421228753250945</v>
       </c>
     </row>
     <row r="46">
@@ -2119,7 +2117,7 @@
         <v>4.160720771464726</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>3.141842024295754</v>
+        <v>3.141842024295757</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>4.241689939871918</v>
@@ -2139,31 +2137,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-6.519956433010711</v>
+        <v>-7.365272657010223</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-3.467336721336695</v>
+        <v>-2.809655200226703</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-2.768840903794099</v>
+        <v>-3.292083817605517</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-2.579037799094502</v>
+        <v>-2.593775447396851</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.761665725750266</v>
+        <v>-2.600028479523741</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-4.004231655997832</v>
+        <v>-4.800924277549559</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.273630972154484</v>
+        <v>-1.210449698494341</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.5961020339376671</v>
+        <v>-0.2761157329002042</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.5411140628489298</v>
+        <v>-0.07253495610983988</v>
       </c>
     </row>
     <row r="48">
@@ -2174,31 +2172,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>13.32603901859572</v>
+        <v>13.26516280079561</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>18.31903139319286</v>
+        <v>18.85680690457307</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>17.21207928626198</v>
+        <v>17.43621845429179</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>11.12431365962119</v>
+        <v>11.2661378996574</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>12.13913561957914</v>
+        <v>11.52335621393874</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>10.12934961433205</v>
+        <v>9.984632423801845</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>10.10545496002653</v>
+        <v>9.788536151379361</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>11.97075156888943</v>
+        <v>11.76053322916009</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>11.39007677037086</v>
+        <v>11.35286708398112</v>
       </c>
     </row>
     <row r="49">
@@ -2224,7 +2222,7 @@
         <v>0.2060252675890086</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1555737285273417</v>
+        <v>0.1555737285273419</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.1900820405732848</v>
@@ -2244,31 +2242,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.2092520417716738</v>
+        <v>-0.2291610811948952</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.09753916744173521</v>
+        <v>-0.09047452642928736</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.08338674930878</v>
+        <v>-0.1088861315725277</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1046289716752476</v>
+        <v>-0.1120062622001728</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.1200202004725225</v>
+        <v>-0.1160266358785764</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.1672292327582431</v>
+        <v>-0.1847984524491625</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.05452344200615504</v>
+        <v>-0.0499725645940675</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.03190832015305754</v>
+        <v>-0.01099213933046863</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.01966829401652957</v>
+        <v>-0.002670691343661478</v>
       </c>
     </row>
     <row r="51">
@@ -2279,31 +2277,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.6377191044614668</v>
+        <v>0.6660712217176924</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.9046291238919448</v>
+        <v>0.9485104577397943</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.869369663156829</v>
+        <v>0.8623660454428105</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.6619539312840353</v>
+        <v>0.6629696625020565</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.7519315696089859</v>
+        <v>0.7090446874794741</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.634052372443038</v>
+        <v>0.5801248619323671</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.5329650915387664</v>
+        <v>0.5057944138274129</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.6366073441718187</v>
+        <v>0.6143610789352133</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.5834166708714712</v>
+        <v>0.5852971855013593</v>
       </c>
     </row>
     <row r="52">
